--- a/clean/unit/clean_unit/08006C.xlsx
+++ b/clean/unit/clean_unit/08006C.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D10">
@@ -972,7 +972,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D32">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10000/ul</t>
+          <t>10^4/ul</t>
         </is>
       </c>
       <c r="D50">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D69">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10000/ul</t>
+          <t>10^4/ul</t>
         </is>
       </c>
       <c r="D87">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D92">
@@ -2250,6 +2250,11 @@
           <t>[130~400] {Large/Giant Platelet was found}</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>sec</t>
+        </is>
+      </c>
       <c r="D97">
         <v>26</v>
       </c>
@@ -2302,7 +2307,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10000/ul</t>
+          <t>10^4/ul</t>
         </is>
       </c>
       <c r="D100">
@@ -2335,6 +2340,11 @@
           <t>[130~400] {L Large/Giant Platelet was found}</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sec</t>
+        </is>
+      </c>
       <c r="D102">
         <v>21</v>
       </c>
@@ -2432,7 +2442,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10000/ul</t>
+          <t>10^4/ul</t>
         </is>
       </c>
       <c r="D107">
@@ -2452,7 +2462,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D108">

--- a/clean/unit/clean_unit/08006C.xlsx
+++ b/clean/unit/clean_unit/08006C.xlsx
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>238223</v>
+        <v>241049</v>
       </c>
     </row>
     <row r="17">
@@ -740,11 +740,6 @@
           <t>x10^3/mm</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
       <c r="D20">
         <v>41228</v>
       </c>
@@ -1345,6 +1340,11 @@
           <t>10m3/ul</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
+        </is>
+      </c>
       <c r="D51">
         <v>2316</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D65">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>cmm</t>
+          <t>10^3/cmm</t>
         </is>
       </c>
       <c r="D70">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D89">
@@ -2250,11 +2250,6 @@
           <t>[130~400] {Large/Giant Platelet was found}</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>sec</t>
-        </is>
-      </c>
       <c r="D97">
         <v>26</v>
       </c>
@@ -2340,11 +2335,6 @@
           <t>[130~400] {L Large/Giant Platelet was found}</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>sec</t>
-        </is>
-      </c>
       <c r="D102">
         <v>21</v>
       </c>
@@ -2592,7 +2582,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D115">

--- a/clean/unit/clean_unit/08006C.xlsx
+++ b/clean/unit/clean_unit/08006C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
